--- a/Week 16/Methods/Model/ScoredC.xlsx
+++ b/Week 16/Methods/Model/ScoredC.xlsx
@@ -31,37 +31,37 @@
     <t>RESOURCE COMPETITION MODIFIES THE STRENGTH OF TRAIT-MEDIATED PREDATOR–PREY INTERACTIONS: A META-ANALYSIS</t>
   </si>
   <si>
+    <t>Trait‐mediated apparent competition in an intraguild predator–prey system</t>
+  </si>
+  <si>
     <t>Trait-Mediated Effects of Parasitic Phorid Flies (Diptera: Phoridae) on Ant (Hymenoptera: Formicidae) Competition and Resource Access in Coffee Agro-ecosystems</t>
   </si>
   <si>
     <t>A multifaceted trophic cascade in a detritus‐based system: density‐, trait‐, or processing‐chain‐mediated effects?</t>
   </si>
   <si>
-    <t>Trait‐mediated apparent competition in an intraguild predator–prey system</t>
-  </si>
-  <si>
     <t>Only a fraction of the individuals in a given prey population are likely to be killed and consumed by predators. In contrast, nearly all individuals experience the chronic effects of predation risk. When threatened by predators, prey adopt defensive tactics whose costs can lead to reduced growth, maturation rates, survivorship, fecundity, or population density. This nonconsumptive impact of predation risk on prey is known as a "trait-mediated interaction" (TMI) because it results from changes in prey traits such as behavior or physiology. Ecological theory suggests that the strength of TMI effects will reflect a balance between the conflicting demands of reproduction vs. predator avoidance. Competitor density and resource availability are expected to alter the balance between these conflicting forces. We conducted a meta-analysis of experimental studies that measured TMI effect size while varying competitor and/or resource density. The threat of predation had an overall negative effect on prey performance, but the strength of this effect varied with the level of competition. High competition exacerbated the negative effect of intimidation on prey density but moderated the negative effect of intimidation on prey life history and growth. We discuss these results in light of previously published theoretical expectations. Our results highlight the variable and context-dependent nature of interspecific interactions.</t>
   </si>
   <si>
+    <t>Apparent competition is of broad interest due to its effects on community structure and potential applications in agriculture, restoration, and medicine. It is well‐established that apparent competition can result from changes in predator abundance or behavior caused by interactions with alternate prey, but no previous empirical study has demonstrated that apparent competition can also result from prey‐induced changes in predator morphology. This trait‐mediated alternative mechanism of apparent competition would expand the range of conditions under which apparent competition might occur in nature and identify new ways to generate or modify apparent competition in applied contexts. Here, as a proof of concept, we show that trait‐mediated apparent competition can arise from inducible offenses and show how it operates using experiments involving three ciliates. When it feeds on Colpidium kleini, the intraguild predator Tetrahymena vorax increases in size to the extent that it can then consume Paramecium aurelia, an even larger prey. When feeding only on bacteria, however, Tetrahymena remains smaller and is unable to consume Paramecium. This trait‐mediated indirect effect leads to the predatory exclusion of Paramecium, while Tetrahymena and Colpidium coexist. Developmental expansions such as those underlying the interactions observed in our study are not limited to ciliates, such as Tetrahymena, but occur among many diverse taxa and may have a surprising degree of influence over the structure and dynamics of food webs.</t>
+  </si>
+  <si>
     <t>Predator effects on prey traits change competitive interactions between prey species affecting resource use. Parasitic phorid flies limit competitive-dominant ant activity, potentially meditating competitive interactions between ant species, changing competitive hierarchies, or affecting ant communities. I considered interactions between phorids (Pseudacteon sp.), their ant host (Azteca instabilis F. Smith), and co-occurring ant species in coffee agro-ecosystems testing whether phorids (1) limit A. instabilis recruitment activity, (2) affect competitive interaction between ant species, and (3) are associated with other species' resource access and therefore have the potential to change competitive hierarchies. I monitored recruitment of A. instabilis and other ants to baits over 90 min on canopy trees with or without phorids. A. instabilis were one-half as abundant with phorids. Other species gained access to baits 12 times more often and were only able to take over baits when phorids were present. Furthermore, many more species (13 versus 2) gained access to resources when phorids were present. These results indicate that phorids mediate competitive interactions between ant species and may influence ant communities by affecting resource availability. Considering that phorids limit A. instabilis attacks on herbivores and that ant species differ in effects on arthropod communities, phorids may have strong community-level effects in coffee agro-ecosystems.</t>
   </si>
   <si>
     <t>We investigated three pathways by which predators on an intermediate trophic level may produce a trophic cascade in detritus‐based systems. Predators may increase lower trophic levels (bacteria) by reducing density of bacteriovores, by altering behavior of bacteriovores, and by processing living bacteriovores into carcasses, feces, and dissolved nutrients that are substrates for bacteria. We tested these pathways in laboratory experiments with mosquitoes in water‐filled containers. Larval Toxorhynchites rutilus prey on larval Aedes triseriatus, which feed on bacteria. Using containers stocked with oak leaf infusion as a bacterial substrate, we compared bacterial productivity at 7 and 14 days for: prey alone; prey with a predator; and prey with predation cues but no predator. Controls contained no larvae, either with predation cues or without cues. Predation cues in the control treatment increased bacterial abundance at 7 days, but this effect waned by 14 days. Aedes triseriatus larvae reduced bacterial abundance significantly at 14 days. Predator cues and real predation both eliminated the negative effect of A. triseriatus on bacterial abundance. Predation cues reduced survivorship of A. triseriatus larvae at 14 days, however this effect was smaller than the effect of real predation. We further tested effects of residues from predation as cues or as detritus in a second experiment in which A. triseriatus were killed at similar rates by: real predators ; mechanical damage without the predator and carcasses left as detritus; or mechanical damage and carcasses removed. No prey larvae were killed in controls. Bacterial productivity was greater with real predation than in all other treatments and greater when prey larvae were killed or killed and removed, than in controls. Thus we find evidence that all three pathways contribute to the trophic cascade from T. rutilus to bacteria in tree hole systems.</t>
   </si>
   <si>
-    <t>Apparent competition is of broad interest due to its effects on community structure and potential applications in agriculture, restoration, and medicine. It is well‐established that apparent competition can result from changes in predator abundance or behavior caused by interactions with alternate prey, but no previous empirical study has demonstrated that apparent competition can also result from prey‐induced changes in predator morphology. This trait‐mediated alternative mechanism of apparent competition would expand the range of conditions under which apparent competition might occur in nature and identify new ways to generate or modify apparent competition in applied contexts. Here, as a proof of concept, we show that trait‐mediated apparent competition can arise from inducible offenses and show how it operates using experiments involving three ciliates. When it feeds on Colpidium kleini, the intraguild predator Tetrahymena vorax increases in size to the extent that it can then consume Paramecium aurelia, an even larger prey. When feeding only on bacteria, however, Tetrahymena remains smaller and is unable to consume Paramecium. This trait‐mediated indirect effect leads to the predatory exclusion of Paramecium, while Tetrahymena and Colpidium coexist. Developmental expansions such as those underlying the interactions observed in our study are not limited to ciliates, such as Tetrahymena, but occur among many diverse taxa and may have a surprising degree of influence over the structure and dynamics of food webs.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1890/04-1249</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/j.1600-0706.2013.00937.x</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1603/0046-225x(2005)034[1089:teoppf]2.0.co;2</t>
   </si>
   <si>
     <t>https://doi.org/10.1890/es14-00365.1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1600-0706.2013.00937.x</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -477,7 +477,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
